--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036AE5BA-9ED4-4BA7-974E-5749F8704AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687749E-6A08-487E-A882-F9BD84DF98A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>NGC-3475/T1756/T1758/T1760</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2642/T2643/T2644</t>
   </si>
 </sst>
 </file>
@@ -528,7 +535,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A8" sqref="A8:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB7454-9F5C-4888-94E5-A84F14D1FC17}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,4 +904,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBF4D67-BDE8-4D7D-9364-8707E30867C6}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687749E-6A08-487E-A882-F9BD84DF98A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788805FA-3230-4525-8144-79E9D7D970B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>NGC-3476/T2642/T2643/T2644</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2435</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -784,7 +791,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBF4D67-BDE8-4D7D-9364-8707E30867C6}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1031,4 +1038,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0BB52C-D1E8-4C0B-9B46-DA588F3C39BC}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788805FA-3230-4525-8144-79E9D7D970B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD2A95-F95D-4DD0-B96C-50785A2DB290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3177/T3176/T3179</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0BB52C-D1E8-4C0B-9B46-DA588F3C39BC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,4 +1172,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D1642-305B-4AAB-A3AE-1920F8DA1027}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD2A95-F95D-4DD0-B96C-50785A2DB290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8CF36E-76DF-49D4-95E7-E64F84FA6EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>NGC-2930/T3177/T3176/T3179</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2219/T2221/T2223</t>
   </si>
 </sst>
 </file>
@@ -549,7 +556,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D1642-305B-4AAB-A3AE-1920F8DA1027}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,4 +1301,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A476897-8C01-4A87-86EC-DD596F6CE60E}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8CF36E-76DF-49D4-95E7-E64F84FA6EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27F022-9083-41A3-A9F7-94004EE3F7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -132,6 +133,12 @@
   </si>
   <si>
     <t>NGC-3145/T2219/T2221/T2223</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2019/T2062/</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A476897-8C01-4A87-86EC-DD596F6CE60E}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,4 +1435,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1252C7C8-EE5E-4C35-8105-F2F5EE53F087}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27F022-9083-41A3-A9F7-94004EE3F7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51790702-74A7-475C-8063-C306107109D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>NGC-3103/T2019/T2062/</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3290</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1252C7C8-EE5E-4C35-8105-F2F5EE53F087}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,4 +1563,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F3A28A-DEC1-4E4F-959A-5ACC8F0B8BDF}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51790702-74A7-475C-8063-C306107109D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA15074-8ED7-4AA1-8B89-7601BB77D14C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>NGC-3191/T3290</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2473</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -692,6 +699,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA099666-E2A4-4F57-8A50-F9E9A146E069}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB7454-9F5C-4888-94E5-A84F14D1FC17}">
   <dimension ref="A1:D15"/>
@@ -1569,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F3A28A-DEC1-4E4F-959A-5ACC8F0B8BDF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA15074-8ED7-4AA1-8B89-7601BB77D14C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A081A3-5AA7-4D54-B15B-B68A47E560AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -153,6 +154,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3205/3204</t>
   </si>
 </sst>
 </file>
@@ -703,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA099666-E2A4-4F57-8A50-F9E9A146E069}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +757,132 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77241E-E311-4912-B0DC-815A6FE49A6D}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A081A3-5AA7-4D54-B15B-B68A47E560AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E48DF-8841-4D61-B135-4457DF878197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="23" r:id="rId12"/>
+    <sheet name="Austria" sheetId="24" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="25" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -160,6 +163,24 @@
   </si>
   <si>
     <t>NGC-4119/T3205/3204</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2188/T2189/T2190</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2295</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2783</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -836,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77241E-E311-4912-B0DC-815A6FE49A6D}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -944,6 +965,387 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD7605A-7785-4DF7-9988-392157122F1D}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794FE5AB-FF9B-4C8A-A8C7-93D278679667}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085084CD-8114-4DE6-8723-501B93E54254}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E48DF-8841-4D61-B135-4457DF878197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50484814-21D9-409E-A345-9DBC8CF3BFFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="23" r:id="rId12"/>
     <sheet name="Austria" sheetId="24" r:id="rId13"/>
     <sheet name="Denmark" sheetId="25" r:id="rId14"/>
+    <sheet name="Russia" sheetId="27" r:id="rId15"/>
+    <sheet name="Finland" sheetId="28" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="29" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -181,6 +184,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2903</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2889</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2981</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085084CD-8114-4DE6-8723-501B93E54254}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1346,6 +1367,379 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB32ED-21D0-46B3-901F-A3A787CBFD06}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD40B6E-3E40-4302-BEB3-434EECB85322}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFCDFA4-218B-4558-B2AF-D712C80D8041}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50484814-21D9-409E-A345-9DBC8CF3BFFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58947E12-3B25-4230-B585-C3CA6B49D941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="27" r:id="rId15"/>
     <sheet name="Finland" sheetId="28" r:id="rId16"/>
     <sheet name="Hungary" sheetId="29" r:id="rId17"/>
+    <sheet name="Norway" sheetId="30" r:id="rId18"/>
+    <sheet name="Poland" sheetId="31" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -202,6 +204,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3073/T3071</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3039/T3037</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFCDFA4-218B-4558-B2AF-D712C80D8041}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1686,6 +1700,258 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B05B1A-8BFA-4557-8B65-FB6ADB3B4849}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915F9CF0-5E53-4CDC-B01D-061FC140E46C}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58947E12-3B25-4230-B585-C3CA6B49D941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB92F52-CDD7-4A56-839D-EAAD4CE74F4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="29" r:id="rId17"/>
     <sheet name="Norway" sheetId="30" r:id="rId18"/>
     <sheet name="Poland" sheetId="31" r:id="rId19"/>
+    <sheet name="UK" sheetId="32" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="57">
   <si>
     <t>Wg</t>
   </si>
@@ -216,6 +217,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3365/T3367/T3364</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B05B1A-8BFA-4557-8B65-FB6ADB3B4849}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2142,6 +2149,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDCBE33-87FA-434E-B17E-92ABAE6BDFEA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC148114-CD16-42DD-85E6-6FE20047C763}">
   <dimension ref="A1:D16"/>
